--- a/summary.xlsx
+++ b/summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,184 @@
   </si>
   <si>
     <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>递归程序，调用系统栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用自己设计的栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.如果结点不空，访问根节点。然后访问左子树，再访问右子树。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如果根结点不空，根节点入栈。
+2.当栈不空的时候，弹出栈顶元素记为node，如果node有右孩子，则右孩子入栈，如果node有左孩子，则左孩子入栈。
+3.循环执行步骤2，知道栈为空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>递归程序，调用系统栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如果根结点不空，先访问根结点的左孩子，再访问根结点，最后访问根结点的右孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用自己设计的栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如果根结点不空，赋值根结点的值给结点cur。
+2.当栈不空或者cur不空的时候，执行循环操作。（循环操作如下）
+    2.1如果cur不空，cur入栈，并且cur = cur.left。直到cur为空。
+    2.2否则（即cur为空），弹出栈顶元素记为node，访问node的值，让
+         cur = node.right.
+3.循环执行步骤2，直到栈为空，cur也为空的时候，中序遍历结束。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>1.如果根结点不空，判断根节点是否有右孩子，如果有则访问右孩子。再判断根结点是否有左孩子，如果有则访问左孩子。最后在访问根结点本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用两个自己设计的栈，命名为A栈和B栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如果根结点不空，根结点进入栈A。
+2.当栈A不空的时候，弹出一个元素记作cur，当cur进入栈B。
+   2.1如果cur有左孩子，左孩子进入栈A。
+   2.2如果cur有右孩子，右孩子进入栈A。
+3.循环执行步骤2，直到栈A为空。所有元素进入栈B，栈B中从栈顶到栈底的顺序就是后序遍历的顺序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>使用队列，在java中可以使用LinkedList，该数据结构有在末尾添加元素的函数offer()、addLast()和在头部取出元素的函数pop()函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节变得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如果根结点不空，根结点进入队列queue。
+2.当队列不空的时候，从队列中取出队首元素记为cur并访问。
+    2.1如果cur有左孩子，左孩子入队列。
+    2.2如果cur有右孩子，右孩子入队列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果输出格式是：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ [3], [9, 20], [15, 7] ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，最外层是一个ArrayList，里面包含多个LinkedList，其中把每次访问到的结果放入current 中，把下一层的结点放入next中。（current和next都是LinkedList）。Current和next交替进行。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用队列，
+使用集合函数，Collections.reverse()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上面一个题目的基础上，最后加一个Collections.reverse(result)即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在102题目的基础上，每次向result中添加一组结果的时候，判断当前层是奇数层还是偶数层。然后根据情况在添加之前调用Collections.reverse()函数，实现zigzag打印。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂度分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间复杂度：O(N)
+空间复杂度：O(N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover Binary Search Tree
+在一颗二叉树中，有两个节点的顺序不对，找到并调整这两个结点的位置。使其恢复成一颗二叉查找树。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +240,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -91,7 +278,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,22 +560,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,13 +584,156 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>使用队列，在java中可以使用LinkedList，该数据结构有在末尾添加元素的函数offer()、addLast()和在头部取出元素的函数pop()函数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细节变得</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,12 +221,202 @@
 在一颗二叉树中，有两个节点的顺序不对，找到并调整这两个结点的位置。使其恢复成一颗二叉查找树。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整体思路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：因为是BST，所以按照中序遍历，其结果肯定是增排序，所以，出现降序的地方就是顺序不对的地方。
+1.设置全局变量，pre，first，second。全部初始化为null。
+2.进行中序遍历，将遍历过程中出现逆序对的较大值赋给first（前提是first是null），较小值赋值给second。
+3.中序遍历结束后，交换first和second的值即可。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>因为要返回两个乱序的结点，所以这里要么使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全局变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，要么使用一个包含</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两个元素的数组（课本上）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一个栈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照相同的顺序，同时遍历两棵树，比较每一个位置的结构和值是否是相等的。比如按照先序的方式，同时遍历两棵树。
+1.当根结点不为空。则将两个树的根结点同时入栈。
+2.当栈不为空时，取出栈顶两个元素，记为node1和node2.
+    2.1如果node1==null，node2==null，则continue，继续进行。
+    2.2如果node1或者node2有一个为null，直接返回false。
+    2.3如果node1 ！= null &amp;&amp; node2 ！= null，比较两者的值，不同返回false。
+    2.4让node1的左孩子和node2的左孩子入栈。
+    2.5让node1的右孩子和node2的右孩子入栈。
+3.执行上面循环，直到栈为空，如果没有在上面循环中返回值，最后返回true。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same Tree
+判断两个二叉树是否完全一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symmetric Tree
+判断一棵树，是否是对称的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较根结点的左后两棵子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.如果根结点不空，就让根结点的左孩子入栈，同时让根结点的右孩子入栈。
+2.一次性弹出两个栈顶元素，记为p和q。
+    2.1如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p和q都不空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则比较他们的值，然后p的左孩子入栈，q的右孩子入栈；p的右孩子入栈，q的左孩子入栈。
+    2.2如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p和q都为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则继续，continue。
+    2.3如果p和q有一个是空，则返回false。
+3.执行完第2步，然后栈为空，说明所有结点都对称，最后返回true。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +433,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -275,10 +469,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,9 +780,10 @@
     <col min="4" max="4" width="31.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -593,10 +800,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -609,8 +819,11 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="G2" s="4">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -623,8 +836,11 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G3" s="4">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -637,8 +853,11 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="G4" s="4">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -651,8 +870,11 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G5" s="4">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -665,8 +887,11 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="G6" s="4">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -679,8 +904,11 @@
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="G7" s="4">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -691,49 +919,118 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="4">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="G11" s="4">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,17 @@
   </si>
   <si>
     <t>Balanced Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路就是对任何一个结点，求该结点的高度。并且计算该结点左子树和右子树的高度差，如果高度差大于1.就返回-1.否则返回高度。
+如果返回-1，则说明不是平衡二叉树，如果不是-1，则说明是平衡二叉树。
+求一颗树的高度：
+1.如果根结点为null，返回0
+2.递归求左子树高度。
+3.递归求右子树高度。
+4.返回左子树和右子树中的较大值+1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -449,12 +460,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -469,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -485,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,12 +1045,15 @@
         <v>42665</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,92 +64,357 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.如果根结点不空，根节点入栈。
+    <t>Leetcode_144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>递归程序，调用系统栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用自己设计的栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>使用两个自己设计的栈，命名为A栈和B栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>使用队列，在java中可以使用LinkedList，该数据结构有在末尾添加元素的函数offer()、addLast()和在头部取出元素的函数pop()函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如果根结点不空，根结点进入队列queue。
+2.当队列不空的时候，从队列中取出队首元素记为cur并访问。
+    2.1如果cur有左孩子，左孩子入队列。
+    2.2如果cur有右孩子，右孩子入队列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果输出格式是：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ [3], [9, 20], [15, 7] ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，最外层是一个ArrayList，里面包含多个LinkedList，其中把每次访问到的结果放入current 中，把下一层的结点放入next中。（current和next都是LinkedList）。Current和next交替进行。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用队列，
+使用集合函数，Collections.reverse()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上面一个题目的基础上，最后加一个Collections.reverse(result)即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂度分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间复杂度：O(N)
+空间复杂度：O(N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover Binary Search Tree
+在一颗二叉树中，有两个节点的顺序不对，找到并调整这两个结点的位置。使其恢复成一颗二叉查找树。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>因为要返回两个乱序的结点，所以这里要么使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全局变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，要么使用一个包含</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两个元素的数组（课本上）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一个栈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same Tree
+判断两个二叉树是否完全一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symmetric Tree
+判断一棵树，是否是对称的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较根结点的左后两棵子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List
+把一颗二叉树，转变为只有右孩子的树，此时类似一个链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II
+给每一层的结点添加next指向，使得每一层的元素都可以通过next指针访问，每一层最右边结点的next指向为null。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">层次遍历，然后给每一层的元素添加next指针的指向。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：要使用到current和next分别执行树中不同的层。访问current这层的时候，将current的孩子结点添加到next中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal
+通过先序和中序构建二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过递归的方式，根据先序数组，起始和终止位置，中序数组，起始和终止位置，构建二叉树。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 先序数组中最左边的值就是树的头结点值，记为head。在中序数组中找到head，下标记为rootIndex。那么在中序数组中rootIndex左边的数组就是头结点左子树的中序数组，长度记为len，则左子树的先序数组就是先序数组中head往后长为len的数组。
+   同理于右子树。
+2. 用左子树的先序和中序数组，递归整个过程建立左子树，返回的头节点记为root.left.
+3. 用右子树的先序和中序数组，递归整个过程建立右子树，返回的头节点记为root.right.
+4. 等head的left和right构建完成，返回root。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+使用递归的方法构建这颗二叉树。对比于上一道题目（通过先序和中序构建二叉树），这道题目是通过中序和后序遍历构建二叉树。
+1. 后序遍历中最后一个节点是整棵树的头节点，记为root，然后在中序数组中找到这个root，并且标记为rootIndex。那么在中序数组中rootIndex左边的数组就是头结点左子树的中序数组，长度记为len，左子树的后序数组就是后序数组中从0开始到len-1的部分。
+   同理于头节点的右子树。
+2. 用head节点左子树的中序数组和后序数组，递归构建head节点的左子树部分，返回结果记为root.left.
+3. 用head节点右子树的中序数组和后序数组，递归构建head节点的右子树部分，返回结果记为root.right.
+4. 当root的left和right全部构建完成，返回root。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.如果根结点不空，根节点入栈。
 2.当栈不空的时候，弹出栈顶元素记为node，如果node有右孩子，则右孩子入栈，如果node有左孩子，则左孩子入栈。
-3.循环执行步骤2，知道栈为空。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Inorder Traversal</t>
-  </si>
-  <si>
-    <t>递归程序，调用系统栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.如果根结点不空，先访问根结点的左孩子，再访问根结点，最后访问根结点的右孩子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用自己设计的栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.如果根结点不空，赋值根结点的值给结点cur。
+3.循环执行步骤2，知道栈为空。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.如果根结点不空，先访问根结点的左孩子，再访问根结点，最后访问根结点的右孩子
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.如果根结点不空，判断根节点是否有右孩子，如果有则访问右孩子。再判断根结点是否有左孩子，如果有则访问左孩子。最后在访问根结点本身
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.如果根结点不空，赋值根结点的值给结点cur。
 2.当栈不空或者cur不空的时候，执行循环操作。（循环操作如下）
     2.1如果cur不空，cur入栈，并且cur = cur.left。直到cur为空。
     2.2否则（即cur为空），弹出栈顶元素记为node，访问node的值，让
          cur = node.right.
-3.循环执行步骤2，直到栈为空，cur也为空的时候，中序遍历结束。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>1.如果根结点不空，判断根节点是否有右孩子，如果有则访问右孩子。再判断根结点是否有左孩子，如果有则访问左孩子。最后在访问根结点本身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用两个自己设计的栈，命名为A栈和B栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.如果根结点不空，根结点进入栈A。
+3.循环执行步骤2，直到栈为空，cur也为空的时候，中序遍历结束。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.如果根结点不空，根结点进入栈A。
 2.当栈A不空的时候，弹出一个元素记作cur，当cur进入栈B。
    2.1如果cur有左孩子，左孩子进入栈A。
    2.2如果cur有右孩子，右孩子进入栈A。
-3.循环执行步骤2，直到栈A为空。所有元素进入栈B，栈B中从栈顶到栈底的顺序就是后序遍历的顺序。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal</t>
-  </si>
-  <si>
-    <t>使用队列，在java中可以使用LinkedList，该数据结构有在末尾添加元素的函数offer()、addLast()和在头部取出元素的函数pop()函数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.如果根结点不空，根结点进入队列queue。
-2.当队列不空的时候，从队列中取出队首元素记为cur并访问。
-    2.1如果cur有左孩子，左孩子入队列。
-    2.2如果cur有右孩子，右孩子入队列。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>如果输出格式是：</t>
-    </r>
+3.循环执行步骤2，直到栈A为空。所有元素进入栈B，栈B中从栈顶到栈底的顺序就是后序遍历的顺序。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在102题目的基础上，每次向result中添加一组结果的时候，判断当前层是奇数层还是偶数层。然后根据情况在添加之前调用Collections.reverse()函数，实现zigzag打印。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -160,7 +425,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[ [3], [9, 20], [15, 7] ]</t>
+      <t>整体思路</t>
     </r>
     <r>
       <rPr>
@@ -170,153 +435,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，最外层是一个ArrayList，里面包含多个LinkedList，其中把每次访问到的结果放入current 中，把下一层的结点放入next中。（current和next都是LinkedList）。Current和next交替进行。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用队列，
-使用集合函数，Collections.reverse()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在上面一个题目的基础上，最后加一个Collections.reverse(result)即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在102题目的基础上，每次向result中添加一组结果的时候，判断当前层是奇数层还是偶数层。然后根据情况在添加之前调用Collections.reverse()函数，实现zigzag打印。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复杂度分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Zigzag Level Order Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间复杂度：O(N)
-空间复杂度：O(N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recover Binary Search Tree
-在一颗二叉树中，有两个节点的顺序不对，找到并调整这两个结点的位置。使其恢复成一颗二叉查找树。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>整体思路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：因为是BST，所以按照中序遍历，其结果肯定是增排序，所以，出现降序的地方就是顺序不对的地方。
+      <t xml:space="preserve">：因为是BST，所以按照中序遍历，其结果肯定是增排序，所以，出现降序的地方就是顺序不对的地方。
 1.设置全局变量，pre，first，second。全部初始化为null。
 2.进行中序遍历，将遍历过程中出现逆序对的较大值赋给first（前提是first是null），较小值赋值给second。
-3.中序遍历结束后，交换first和second的值即可。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>因为要返回两个乱序的结点，所以这里要么使用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>全局变量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，要么使用一个包含</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>两个元素的数组（课本上）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用一个栈。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照相同的顺序，同时遍历两棵树，比较每一个位置的结构和值是否是相等的。比如按照先序的方式，同时遍历两棵树。
+3.中序遍历结束后，交换first和second的值即可。
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">按照相同的顺序，同时遍历两棵树，比较每一个位置的结构和值是否是相等的。比如按照先序的方式，同时遍历两棵树。
 1.当根结点不为空。则将两个树的根结点同时入栈。
 2.当栈不为空时，取出栈顶两个元素，记为node1和node2.
     2.1如果node1==null，node2==null，则continue，继续进行。
@@ -324,29 +452,8 @@
     2.3如果node1 ！= null &amp;&amp; node2 ！= null，比较两者的值，不同返回false。
     2.4让node1的左孩子和node2的左孩子入栈。
     2.5让node1的右孩子和node2的右孩子入栈。
-3.执行上面循环，直到栈为空，如果没有在上面循环中返回值，最后返回true。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same Tree
-判断两个二叉树是否完全一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Symmetric Tree
-判断一棵树，是否是对称的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较根结点的左后两棵子树</t>
+3.执行上面循环，直到栈为空，如果没有在上面循环中返回值，最后返回true。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -398,28 +505,115 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，则继续，continue。
+      <t xml:space="preserve">，则继续，continue。
     2.3如果p和q有一个是空，则返回false。
-3.执行完第2步，然后栈为空，说明所有结点都对称，最后返回true。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leetcode_110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balanced Binary Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思路就是对任何一个结点，求该结点的高度。并且计算该结点左子树和右子树的高度差，如果高度差大于1.就返回-1.否则返回高度。
+3.执行完第2步，然后栈为空，说明所有结点都对称，最后返回true。
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">思路就是对任何一个结点，求该结点的高度。并且计算该结点左子树和右子树的高度差，如果高度差大于1.就返回-1.否则返回高度。
 如果返回-1，则说明不是平衡二叉树，如果不是-1，则说明是平衡二叉树。
 求一颗树的高度：
 1.如果根结点为null，返回0
 2.递归求左子树高度。
 3.递归求右子树高度。
-4.返回左子树和右子树中的较大值+1.</t>
+4.返回左子树和右子树中的较大值+1.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.当根结点不为空，根结点入栈。
+2.当栈不为空的时候，访问栈顶元素，记作node，并且弹出。
+    2.1当node有右孩子的时候，右孩子入栈。
+    2.2.当node有左孩子的时候，左孩子入栈。
+    2.3让node的左孩子赋值为null。
+    2.4再次判断栈是否为空，如果栈不为空，访问但是不弹出栈顶元素，令node.right = 栈顶元素。
+3.循环执行步骤2，直到栈为空。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Leetcode_95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>思路一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：中序遍历这棵树，得到一个中序遍历的结果，对这个终须结果进行遍历，如果存在降序对，返回false。否则返回true。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>思路二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：采用递归的思想。针对每个结点确保，左子树的每个结点比当前结点小，右子树的每个结点比当前结点大。
+每个结点有自己的上下界限。对root而言，min是Interget.MIN_VALUE,max是Interget.MAX_VALUE.当往左递归时，下界不变，上界变为当前结点的值，即root.val。当往右递归时，上界不变，下界变为当前结点的值，即root.val
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选中点构造根节点，然后递归的构造左子树和右子树。
+ 比如：对于1，2，3，4，5，6，7，这样的一个序列。中间节点是4，4就是整个树的根节点。1，2，3节点是根节点的左边的数组。5，6，7值根节点的右边的数组。其中，1，2，3的中间节点是2，而这个2就是4的左孩子。5，6，7的中间节点是6，6这个节点就是4的右孩子。
+ 按照这样的顺序，递归构建这颗树。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用系统的栈。因为是递归构建二叉树。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -811,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -820,15 +1014,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -843,9 +1037,9 @@
         <v>42664</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -854,75 +1048,75 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4">
         <v>42664</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G4" s="4">
         <v>42664</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G5" s="4">
         <v>42664</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G6" s="4">
         <v>42664</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G7" s="4">
         <v>42665</v>
@@ -930,19 +1124,19 @@
     </row>
     <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4">
         <v>42665</v>
@@ -950,110 +1144,193 @@
     </row>
     <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4">
         <v>42665</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G10" s="4">
         <v>42665</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G11" s="4">
         <v>42665</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G12" s="4">
         <v>42665</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4">
         <v>42665</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,9 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Validate Binary Search Tree</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -601,9 +598,6 @@
   <si>
     <t>Leetcode_108</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert Sorted Array to Binary Search Tree</t>
   </si>
   <si>
     <t xml:space="preserve">选中点构造根节点，然后递归的构造左子树和右子树。
@@ -614,6 +608,260 @@
   </si>
   <si>
     <t>调用系统的栈。因为是递归构建二叉树。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用了全局变量，因为不支持引用传递。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">自底向上构建二叉树。先构建叶子结点本身，然后构建叶子结点的左右孩子全为null。
+H表示链表的头结点
+public TreeNode sortedListToBST(int start, int end){
+  if(start &gt; end)
+   return null;
+  int mid = (start+end)/2;
+  TreeNode leftChild = sortedListToBST(start, mid-1);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TreeNode parent = new TreeNode(h.val)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parent.left = leftChild;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  h = h.next;
+  parent.right = sortedListToBST(mid+1, end);
+  return parent;
+  }
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>递归程序结构如下：
+1. 如果root == null，返回0.
+2. 否则比较当前节点root的左子树和右子树，返回min（root.left+1,root.right+1）。+1加的是本层所占的高度。
+   但是这个时候出现一个问题，就是当只有两个节点的时候，理应返回2.我们的程序却返回1.（因为程序返回最小值+1，也就是0+1，结果是1）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所以加了一些判断处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。当前节点左孩子为空时，返回右子树高度+1，当前节点右孩子为空时，返回左子树高度+1.只有左右子树都不空时，我们返回较小值+1.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.当根结点为null的时候，返回0.
+2.当根结点不为null的时候：
+    2.1  int left = getHeight(root.left);
+    2.2  int right = getHeight(root.right);
+    2.3  return Math.max(left,right) + 1;
+3.最后得到树的高度。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree
+判断一棵二叉树是否是二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree
+把一个已经排好序的数组转变为一颗二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert Sorted List to Binary Search Tree
+把一个已经排好序的链表，转变为一颗二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree
+求一颗二叉树的最小高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree
+求一颗二叉树的最大高度，也就是求一颗二叉树的高度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Sum
+在一颗二叉树中，是否存在一条从根结点到叶子结点的路径，让这条路径上的和等于指定值sum。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用两个LinkedList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用两个LinkedList，其中一个LinkedList（nodes）存放入队列的节点，另外一个LinkedList（values）存放入到当前节点为止的和。
+2. 当nodes队列不空时，取出nodes中的节点和values中的值，然后根据该节点，向左左右孩子扩展，让左右孩子入连同从根到左右孩子节点的求和值分别入队列。
+3. 如果左右孩子为空，则说明访问到叶子节点，判断当前的和与给定值是否相等。
+4. 如果左右孩子不为空，重复第2步操作。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Sum II
+在上面一题的基础上，这道题目还要求出所有的路径，形如：
+[
+ [5,4,11,2],
+ [5,8,4,5]
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">因为要找出所有的结果，所以要遍历所有结果，使用DFS在解空间中进行搜索。
+public void pathSumHelper(TreeNode root, int sum, List &lt;Integer&gt; sumlist, List&lt;List&lt;Integer&gt;&gt; pathlist){
+  if(root == null)
+   return ;
+  sumlist.add(root.val);
+  sum = sum-root.val;
+  if(root.left == null &amp;&amp; root.right == null){
+   if(sum == 0){
+    pathlist.add(new ArrayList&lt;Integer&gt;(sumlist));
+   }
+  }else{
+   if(root.left != null)
+    pathSumHelper(root.left,sum,sumlist,pathlist);
+   if(root.right != null)
+    pathSumHelper(root.right,sum,sumlist,pathlist);
+  }
+  sumlist.remove(sumlist.size()-1);   //因为是DFS搜索，回溯的时候要把曾经添加到sumList中的结点逐一移除，以待下次遍历到新的结点的时候，向sumList中加入新的结点。
+ }
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node
+每个node多出来一个next指针，每一层的next指针连起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum Root to Leaf Numbers
+题目的意思是从根节点到叶子节点会构成一个数，构成的方式是父节点的值*10+子节点的值。然后把所有构成的数相加求和。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.当根结点为null的时候，返回0.
+2.当根结点不为null的时候做判断：
+    2.1如果root结点左右孩子都为null，停止递归，返回sum*10+root.val
+    2.2否则，对左右孩子分别进行递归：dfs(root.left,sum*10+root.val)+dfs(root.right,sum*10+root.val).
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Maximum Path Sum
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 如果root==null，直接返回false。
+2. 否则，每次访问到一个节点，sum就减去这个节点的值。然后递归该节点的左子树和右子树。
+3. 直到，访问到叶节点时（root.left==null &amp;&amp; root.right == null）,判断sum是不是减到0.如果减到0，那么说明这样的一条路径知道了。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +869,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +896,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -680,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -698,6 +954,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1249,6 +1514,9 @@
       <c r="E14" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G14" s="4">
+        <v>42666</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1263,6 +1531,9 @@
       <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="G15" s="4">
+        <v>42666</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1274,8 +1545,11 @@
       <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="G16" s="4">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1288,8 +1562,11 @@
       <c r="E17" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="G17" s="4">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1299,41 +1576,179 @@
       <c r="E18" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="4">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="G19" s="4">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="4">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="4">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
+      <c r="E22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="4">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="4">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="4">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="4">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="D26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="356.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数组" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,10 +540,6 @@
   </si>
   <si>
     <t>Unique Binary Search Trees</t>
-  </si>
-  <si>
-    <t>Leetcode_95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -853,14 +849,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Binary Tree Maximum Path Sum
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. 如果root==null，直接返回false。
 2. 否则，每次访问到一个节点，sum就减去这个节点的值。然后递归该节点的左子树和右子树。
 3. 直到，访问到叶节点时（root.left==null &amp;&amp; root.right == null）,判断sum是不是减到0.如果减到0，那么说明这样的一条路径知道了。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum
+在一颗二叉树中，从一个结点出发，到达另外一个结点，使得该路径上的和最大，并返回该最大值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用递归写法，后续遍历二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一个以h为头的树上，最大路径和只可能来自一下三种情况：
+（1）h的左子树上有最大路径和。
+（2）h的右子树上有最大路径和。
+（3）h左子树上的路径和+h结点的值+h右子树上的路径和
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Search Binary Tree
+返回一颗二叉树中最大子二叉搜索树的根结点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BST Topo Size
+返回符合搜索二叉树条件的最大拓扑结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is BST
+给定一个根结点，判断一棵树是否是二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBT
+判断这棵二叉树是不是完全二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Distance
+找到二叉树中最大距离，类似于上面一道求最大路径的题目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode_125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Palindrome
+是判断一个字符串是否是回文。在判断是否是回文的过程中，只对字母和数字进行判断。空格和其他标点符号不纳入考虑范围
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -957,6 +1008,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1245,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1593,13 +1647,13 @@
     </row>
     <row r="20" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G20" s="4">
         <v>42666</v>
@@ -1607,16 +1661,16 @@
     </row>
     <row r="21" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G21" s="4">
         <v>42666</v>
@@ -1624,16 +1678,16 @@
     </row>
     <row r="22" spans="1:7" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="4">
         <v>42667</v>
@@ -1641,16 +1695,16 @@
     </row>
     <row r="23" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="4">
         <v>42667</v>
@@ -1658,65 +1712,65 @@
     </row>
     <row r="24" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G24" s="4">
         <v>42667</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>91</v>
+      <c r="A25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G25" s="4">
         <v>42667</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="D26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="356.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>50</v>
@@ -1724,24 +1778,61 @@
     </row>
     <row r="29" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="D29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>104</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1794,29 +1885,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="数组" sheetId="1" r:id="rId1"/>
+    <sheet name="树" sheetId="1" r:id="rId1"/>
     <sheet name="链表" sheetId="2" r:id="rId2"/>
     <sheet name="字符串" sheetId="3" r:id="rId3"/>
     <sheet name="栈和队列" sheetId="4" r:id="rId4"/>
-    <sheet name="树" sheetId="5" r:id="rId5"/>
+    <sheet name="数组" sheetId="5" r:id="rId5"/>
     <sheet name="排序" sheetId="6" r:id="rId6"/>
     <sheet name="查找" sheetId="7" r:id="rId7"/>
     <sheet name="DFS" sheetId="8" r:id="rId8"/>
+    <sheet name="递归和动态规划" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1301,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1887,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2094,4 +2095,20 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="树" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="116">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -988,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1009,6 +1009,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1302,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1729,10 +1732,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1746,8 +1749,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
@@ -2099,14 +2102,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
